--- a/data/trans_camb/P25_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 6,03</t>
+          <t>-15,35; 8,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 14,7</t>
+          <t>-8,96; 14,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 12,76</t>
+          <t>-21,84; 6,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 7,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 4,28</t>
+          <t>-15,23; 6,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 1,15</t>
+          <t>-13,53; 6,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 7,78</t>
+          <t>-16,51; 7,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 5,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-12,04; 3,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 6,91</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 2,99</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>-20,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-9,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-13,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 23,3</t>
+          <t>-36,36; 30,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 55,5</t>
+          <t>-20,35; 54,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 48,03</t>
+          <t>-51,23; 18,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 4,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 18,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 10,47</t>
+          <t>-29,04; 15,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 2,95</t>
+          <t>-25,77; 18,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 21,36</t>
+          <t>-32,56; 17,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 15,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,63; 10,48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,85; 18,72</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-32,97; 7,9</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,59</t>
+          <t>-7,67; 3,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,73</t>
+          <t>-7,96; 2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,59</t>
+          <t>-7,93; 4,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 2,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -3,58</t>
+          <t>-10,64; 0,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,08</t>
+          <t>-8,1; 3,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,45</t>
+          <t>-8,34; 3,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 0,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 0,2</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 1,33</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 2,25</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>-15,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>-9,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,07%</t>
+          <t>-23,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>-11,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-18,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-14,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-10,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 37,98</t>
+          <t>-37,21; 22,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 39,11</t>
+          <t>-39,3; 14,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 53,55</t>
+          <t>-37,77; 28,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,01; -2,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 14,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,3; -19,78</t>
+          <t>-44,45; 5,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 7,46</t>
+          <t>-34,63; 19,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 16,41</t>
+          <t>-36,32; 21,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 1,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-33,77; 1,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-30,15; 8,34</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-28,89; 13,76</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,6</t>
+          <t>-6,13; 4,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,47</t>
+          <t>-4,84; 5,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 5,24</t>
+          <t>-2,02; 10,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 2,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,44</t>
+          <t>-4,85; 2,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,96</t>
+          <t>-2,7; 4,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 2,32</t>
+          <t>-0,79; 8,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 4,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 2,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 3,62</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 7,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-27,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>-11,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>61,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>40,26%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 39,85</t>
+          <t>-36,91; 43,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 39,13</t>
+          <t>-28,93; 54,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 45,73</t>
+          <t>-13,11; 93,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 16,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 39,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 102,36</t>
+          <t>-51,93; 61,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 20,53</t>
+          <t>-31,43; 113,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 24,65</t>
+          <t>-12,16; 191,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 43,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-33,49; 29,93</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-20,64; 45,13</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 93,19</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>8,11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>3,46</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,65</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,41</t>
+          <t>-4,42; 6,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 5,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,94</t>
+          <t>1,4; 13,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,2; -0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 3,06</t>
+          <t>-8,45; 3,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 0,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,94</t>
+          <t>-7,27; 5,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 3,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 8,03</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>-5,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,89%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>17,37%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 22,11</t>
+          <t>-25,38; 46,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 32,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 44,35</t>
+          <t>6,05; 97,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -1,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 13,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 15,19</t>
+          <t>-31,35; 16,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 15,96</t>
+          <t>-27,38; 26,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 20,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-22,0; 17,78</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 43,22</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,15</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 3,03</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 4,91</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 6,61</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; -0,13</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 1,7</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 3,57</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 0,56</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,34</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 3,83</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,59%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-8,34%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-14,88; 18,77</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 30,81</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 41,1</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-26,72; -0,56</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,33; 8,9</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 17,76</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-18,43; 3,32</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-10,56; 12,16</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 20,5</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
